--- a/data/long_razon/P18_6-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_6-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-25,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>135,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-28,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-16,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>58,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 53,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-54,46; 16,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,08; 313,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 8,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 70,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 64,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 13,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,01; 24,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,83; 118,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-53,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>69,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-46,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-49,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>57,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,52; -24,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 183,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 193,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,19; -20,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,63; 177,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 111,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,79; -32,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,38; 144,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 116,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-41,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-37,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-39,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-68,27; 18,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 74,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 41,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-52,65; -12,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,32; 166,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 45,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-56,48; -15,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 96,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 32,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-47,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-38,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,49; -26,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 90,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 76,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,78; -5,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,7; 172,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 17,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,03; -22,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,29; 107,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 27,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>88,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-26,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-17,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>76,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 56,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 202,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 65,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 7,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,46; 150,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 48,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 9,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33,86; 139,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 42,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-24,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>60,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 77,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 106,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 59,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 10,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 143,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 80,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 14,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 91,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 50,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-30,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-32,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>67,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-31,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-42,32; -15,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 48,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,82; 54,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-41,42; -21,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,58; 97,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 28,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-39,02; -23,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,97; 62,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,1; 34,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
